--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_6.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_6.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_6" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_6_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1859,4 +1860,5525 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B550"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>转让</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>当群</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>群内</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>移出</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>群员</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>策略</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>踢</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>长</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>对话</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>组成员</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>拒绝请求</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>首字母</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>成为</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>禁言</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>角色</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>组员</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>安全性</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>简介</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>障碍</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>其他人</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>普通</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>编辑</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>组内</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>权利</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>强制</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>来看</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>一栏</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>审核</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>拉新</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>实现</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>困难</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>离开</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>不良</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>警告</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>空格</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>符号</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>进一步</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>反应</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>出群</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>所有人</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>而群</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>触发</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>个性化</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>绕过</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>主将</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>以下</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>缺失</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>同样</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>适当</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>群里</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>初衷</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>共享</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>区别</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>社交</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>字母</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>位于</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>串</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>顺序排列</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>结果显示</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>前端</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>物品</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>差异</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2004109408</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>理想</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>数字</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>一串</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>撤销</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>低下</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>逐个</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>购买</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>创建者</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>身份验证</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>不知</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>原始</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>拉人</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>表达</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>沮丧</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>指向</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>改群</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>进群</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>加入成员</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>通讯录</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>专业</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>稳定</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>看起来</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>跟不上</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>意图</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>预测</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>重新启动</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>无疑</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>正确区分</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>一点</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>群住</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>整齐</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>框起来</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>文本框</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>别扭</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>一方</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>附加</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>目的</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>重复使用</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>单方面</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>拉人时</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>按群</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>深度</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>必备</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>信息安全</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>无视</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>被选为</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>环节</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>安全措施</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>行使</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>说出</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>便</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>社交互动</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>渲染</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>词汇</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>实质性</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>表情符号</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>难度</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>经历</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>组</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>有时候</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>麻烦</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>这会</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>让给</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>解散</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>设为</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>过载</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>两种</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>学习</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>红色</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>成本</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>短</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>公正性</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>此类</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>软件设计</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>已阅</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>初始状态</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>供</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>对象</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>指示</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>不知所措</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>批准</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>清晰性</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>提升</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>透明度</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>为群</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>闪动</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>配置</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>跟随</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>不变</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>名</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>实时</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>运作</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>下拉取</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>自定义</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>大大</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>中为</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>显著</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>利用</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>畅</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>改动</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>当已</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>采取任何</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>控制</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>基本</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>规定</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>主动</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>措施</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>规范</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>面对</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>对系统</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>制</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>强制性</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>所选</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>不再</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>重新加入</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>当该</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>聊时</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>无障碍</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>选定</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>并长</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>引发</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>被邀请者</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>变动</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>非群</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>类群</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>激活</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>泄露</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>这样的话</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>太</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>转给</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>组中</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>第三方</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>分享</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>一位</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>不足</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>分出</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>地区</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>明确性</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>高效性</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>某位</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>转移</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>轻松</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>群号码</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>复制</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>项</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>破环</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>破坏</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>变</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>征得</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>环境</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>因素</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>行</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>菜鸟</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>满勤</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>勋章</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>字数</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>菜单</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>操作界面</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>这有</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>高频率</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>上以</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>无法访问</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>暗示</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>实际操作</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>即当</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>具体操作</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>无关</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>文字描述</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>’</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>冲突</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>打勾</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>差</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>是不是</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>居然</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>为佳</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>选已</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>群员时</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>荒</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>调试</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>相悖</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>无效</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>应是</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>逻辑推理</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>少于</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>禁止</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>发言</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>东大</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>看不到</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>动态</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>当有</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>对称</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>过往</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>之外</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>人大</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>新创建</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>标识</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>后缀</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>闪</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_6.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_6.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,124 +437,207 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000009330</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>安全性差：群主可以直接将群转给群员，且群员的权限和群主没有太大区别，群主能多设置群内的相关文字内容，而群员可以直接邀请等，这样的话，群主不能限制群员的行为会让群内的信息泄露，导致安全性不好。应该添加一个群主对于群员的权限设置的功能，抑或群员邀请了之后需要经过管理员同意才能入群。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>安全性 差 群主 群 转给 群员 群员 权限 群主 没有 太 区别 群主 设置 群内 相关 文字 内容 群员 邀请 这样的话 群主 不能 限制 群员 行为 群内 信息 泄露 安全性 不好 应该 添加 群主 群员 权限 设置 群员 邀请 之后 管理员 同意 入群</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000008737</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>在群成员列表中，添加新成员的选项被错误地激活了，即使没有经过成员的同意也能直接将他们拉入群聊。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>群 成员 列表 添加 新 成员 选项 错误 激活 没有 成员 同意 拉 入 群聊</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000008839</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>非群管理员也可以直接邀请其他人进入群，而且不需要对方验证</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>非群 管理员 邀请 其他人 进入 群 验证</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000008252</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>问题描述：当群主设置请求加入群的策略为拒绝请求时，群成员发送的邀请新成员的请求仍然能够无障碍通过。这违反了预期的功能行为，即被拒绝的请求应该无法成功邀请新成员。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>群主 设置 请求 加入 群 策略 拒绝请求 群 成员 发送 邀请 新 成员 请求 仍然 能够 无障碍 违反 预期 行为 拒绝 请求 应该 无法 成功 邀请 新 成员</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000008967</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>在群组设置中，当群主将请求加入群策略设置为拒绝请求并由管理员审批时，成员仍可随意邀请他人加入。同时，群主与管理员并未收到任何加入请求的信息。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>群组 设置 当群 主将 请求 加入 群 策略 设置 拒绝请求 管理员 审批 成员 随意 邀请 加入 群主 管理员 并未 收到 加入 请求 信息</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>10010000007830</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>该软件界面显示“群成员”部分存在一个bug，其中“群主”和“群管理员”的头像被错误地展示为相同的图片。</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>界面显示 群 成员 部分 群主 群 管理员 头像 错误 展示 相同 图片</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>10010000008179</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>该软件存在以下bug：
 1. 用户界面中的群组管理功能似乎出现了问题，管理员无法设置其他用户为管理员，这与预期的功能不符。
@@ -562,7 +645,7 @@
 3. 邀请成员入群的过程设计有缺陷，被邀请者在未明确同意的情况下就被加入到群聊中，这可能引发隐私和权限的问题。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>以下 
  .   用户界面 群组 管理 出现 管理员 无法 设置 管理员 预期 不符 
@@ -570,1290 +653,1960 @@
  .   邀请 成员 入群 过程 设计 缺陷 被邀请者 未 明确 同意 情况 加入 群聊 引发 隐私 权限</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>10010000009774</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>该应用程序的群组设置中存在一个bug，导致用户无法删除他们不想要的群组成员。尽管用户可以在群组成员列表中选择并长按要删除的成员，但系统并未执行删除操作，群组成员列表仍然显示所有选定的成员。</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>应用程序 群组 设置 无法 删除 想要 群 组成员 群 组成员 列表 选择 并长 删除 成员 系统 并未 执行 删除 群 组成员 列表 仍然 选定 成员</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008079</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>在群聊组中，当群成员退出群聊时，群主无法接收到相应的通知消息，导致群管理功能出现障碍。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>群聊 组中 当群 成员 退出 群聊 群主 无法 接收 相应 通知 消息 群 管理 出现 障碍</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000009453</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>该软件在群管理功能上存在缺陷。具体来说，当用户尝试在第三方应用程序或分享到其他群组时，只有群主能够复制群号码，而普通成员无法执行此操作。这一设计限制了群组信息的共享能力，导致用户无法轻松地将信息从一个群转移到另一个群，从而影响了软件的社交交互功能和用户体验。</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>群 管理 缺陷 具体来说 第三方 应用程序 分享 群组 群主 能够 复制 群号码 普通 成员 无法 执行 这一 设计 限制 群组 信息 共享 能力 无法 轻松 信息 群 转移 群 软件 社交 交互</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009149</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>问题描述：在使用该群组管理功能时，尽管已成功将某位成员设置为管理员，但在群组中，管理员与其他普通成员之间没有明显的区别显示。这意味着用户无法直观地识别哪些成员是管理员，这违反了设置管理员的初衷，即为了区分和管理群组的不同成员角色，确保群组管理的高效性和明确性。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>群组 管理 成功 某位 成员 设置 管理员 群组 管理员 普通 成员 之间 没有 明显 区别 意味着 无法 直观 识别 成员 管理员 违反 设置 管理员 初衷 区分 管理 群组 不同 成员 角色 确保 群组 管理 高效性 明确性</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000009109</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>该软件中存在一个显示问题，导致用户在群聊界面无法准确区分管理员和其他普通成员。在设置某个成员为管理员后，界面上有时能明确地区分出管理员身份，而有时则不能。这造成了用户体验上的不一致和混淆。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>群聊 界面 无法 准确 区分 管理员 普通 成员 设置 成员 管理员 界面 明确 地区 分出 管理员 身份 不能 造成 一致 混淆</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008829</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>群成员管理缺失删除成员功能</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>群 成员 管理 缺失 删除 成员</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008862</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>在群成员管理界面中，当用户长按某个群成员时，系统错误地显示了权限不足的提示信息。实际上，根据预期的操作流程，此时系统应该展示与该群成员相关的操作选项，例如移出群聊、设置管理员权限等。这个错误导致群主无法进行预期中的群成员管理操作。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>群 成员 管理 界面 长 群 成员 系统 错误 权限 不足 提示信息 实际上 预期 系统 应该 展示 群 成员 相关 选项 移出 群聊 设置 管理员 权限 错误 群主 无法 进行 预期 群 成员 管理</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008817</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>在当前系统中，当一个群聊中只有一位成员时，该群聊无法通过搜索功能被用户发现。这可能影响了用户的使用体验，尤其是当他们希望找到并加入或管理这类群聊时。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>当前 系统 群聊 一位 成员 群聊 无法 搜索 发现 尤其 希望 找到 加入 管理 类群 聊时</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008707</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>在群聊中，当组员退出时，并没有通知或提示给群主。同样地，当该组员试图重新加入这个群聊时，也没有相应的提示或通知告知他/她。这可能导致群主和组员之间的沟通不畅，增加了误解和混淆的风险。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>群聊 组员 退出 没有 通知 提示 群主 同样 当该 组员 试图 重新加入 群聊 没有 相应 提示 通知 告知 / 群主 组员 之间 沟通 畅 增加 误解 混淆 风险</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000008350</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>该软件界面显示一个群组设置页面，其中包含多个选项和图标。其中一个群成员正在尝试添加新成员，而另一个成员已经加入了该群。然而，尽管设置了需要验证或者不允许任何人的加入策略，但已经在群里的成员似乎能够绕过管理员的审批流程，直接添加新成员到群组中。这可能表明存在一个bug或设计缺陷，使得某些用户能够利用这个设置来绕过群管理的限制。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>界面显示 群组 设置 页面 包含 多个 选项 图标 群 成员 正在 添加 新 成员 成员 加入 群 设置 验证 允许 任何人 加入 策略 群里 成员 能够 绕过 管理员 审批 添加 新 成员 群组 表明 设计 缺陷 能够 利用 设置 绕过 群 管理 限制</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000009725</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>该软件中的群聊功能存在一个显著的缺陷。用户无法在群聊中为每个成员单独设置或更改他们的昵称，这大大限制了用户的个性化和自定义能力。此外，这也可能导致沟通上的不便，因为用户无法通过昵称来快速识别群聊中的其他成员。</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>群聊 显著 缺陷 无法 群聊 中为 每个 成员 单独 设置 更改 昵称 大大 限制 个性化 自定义 能力 沟通 不便 无法 昵称 快速 识别 群聊 成员</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009554</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>该软件在群管理设置中存在一个明显的bug。根据设定，只有当群主同意后，成员才能加入群聊。然而，当前的软件配置允许成员在未得到群主同意的情况下拉取其他成员进入群聊。这种情况可能会导致群内信息的混乱和管理的困难，从而影响群聊的正常运作和用户的使用体验。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>群 管理 设置 明显 设定 群主 同意 成员 加入 群聊 当前 软件 配置 允许 成员 未 得到 群主 同意 情况 下拉取 成员 进入 群聊 情况 群内 信息 混乱 管理 困难 群聊 正常 运作</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000008356</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>在群聊管理界面中，当管理员尝试更改成员的名称后，该名称的更新并未在群聊信息中实时反映。尽管成员已成功修改其昵称，但在群聊内的成员列表中，该成员的信息名仍然保持不变，没有跟随新昵称的改动而更新。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>群聊 管理 界面 管理员 更改 成员 名称 名称 更新 并未 群聊 信息 实时 反映 成员 成功 修改 昵称 群聊 成员 列表 成员 信息 名 仍然 保持 不变 没有 跟随 新 昵称 改动 更新</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000008106</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>该软件界面在展示成员选择时存在视觉和功能上的问题。首先，当所有成员的头像相同时，用户无法通过头像区分各个成员的身份，这可能导致用户在选择成员时的混淆和误解。其次，当已选择的成员数量超过8个后，后续的成员头像不再显示，导致用户无法看到所有的成员选项，这可能会影响用户的选择效率并降低用户体验。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>界面 展示 成员 选择 视觉 成员 头像 相同 无法 头像 区分 成员 身份 选择 成员 混淆 误解 当已 选择 成员 数量 超过 后续 成员 头像 不再 无法 看到 成员 选项 选择 效率 降低</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000008750</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>在软件界面中，当用户选择群成员时，系统并未提供邀请选项，而是直接将所选成员强制加入群组。这种强制性的加群策略与用户期望的邀请制不符，可能导致用户对系统的不满和困惑。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>软件 界面 选择 群 成员 系统 并未 提供 邀请 选项 所选 成员 强制 加入 群组 强制性 加群 策略 期望 邀请 制 不符 对系统 不满 困惑</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000008217</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>问题描述：该群组管理功能存在一个明显的bug，使得管理员在面对不符合群规范的成员时无法采取任何措施。具体来说，只有当群成员自己主动退出群组时，才能离开该群。因此，如果某个成员违反了群规定，管理员将无法通过踢出功能将其移出群组。这显然违背了群组管理的基本要求，可能导致对群内行为的控制失效。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>群组 管理 明显 管理员 面对 符合 群 规范 成员 无法 采取任何 措施 具体来说 当群 成员 主动 退出 群组 离开 该群 成员 违反 群 规定 管理员 无法 踢 出 移出 群组 显然 违背 群组 管理 基本 要求 群内 行为 控制 失效</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008755</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>问题描述：软件界面中，关于群组设置的权限部分存在逻辑错误。在“群组设置”中，当选择“允许所有人添加成员”时，下方的“请求加入群策略”权限选项包括了“同意加入”，“管理员审批”，和“拒绝请求”。这与上方的设置项存在明显的冲突。根据逻辑推理，若已经选择了“允许所有人添加成员”，则“请求加入群策略”中的“同意加入”、“管理员审批”和“拒绝请求”选项应是多余的或无效的，因为它们与主要设置相悖。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>软件 界面 群组 设置 权限 部分 逻辑 错误 群组 设置 选择 允许 所有人 添加 成员 下方 请求 加入 群 策略 权限 选项 包括 同意 加入 管理员 审批 拒绝请求 上方 设置 项 明显 冲突 逻辑推理 选择 允许 所有人 添加 成员 请求 加入 群 策略 同意 加入 管理员 审批 拒绝请求 选项 应是 多余 无效 设置 相悖</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000008180</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>该软件界面显示群组设置选项，其中包含群成员信息和群管理功能。然而，在尝试执行踢出群成员的操作时，系统似乎没有反应或错误提示，导致群主无法将成员从群组中移除。这可能表明一个功能性的问题，需要进一步的分析和调试来确定具体原因。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>界面显示 群组 设置 选项 包含 群 成员 信息 群 管理 执行 踢 出群 成员 系统 没有 反应 错误 提示 群主 无法 成员 群组 移除 表明 功能性 进一步 分析 调试 确定 具体 原因</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000009753</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>新建群选择群员时，应该可以选已存在于本地其他群聊中的成员为佳。</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>新建 群 选择 群员时 应该 选已 群聊 成员 为佳</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000008703</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>作为一个群主，我居然不能禁言，我还是不是群主了</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>群主 居然 不能 禁言 是不是 群主</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008763</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>不能将其他人设置为群管理员。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>不能 其他人 设置 为群 管理员</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000008613</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>在测试过程中，当进入“我的群组”界面并尝试添加成员时，系统并未正确地显示群成员数量的警告信息。尽管设置群名称为123并且点击了打勾图标以确认，但系统错误地允许了一个只有两个成员的群聊被创建，这与预期的功能不符，即群聊的成员数量不应少于3个。</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>过程 进入 群组 界面 添加 成员 系统 并未 正确 群 成员 数量 警告 信息 设置 群 名称 123 点击 打勾 图标 确认 系统 错误 允许 两个 成员 群聊 创建 预期 不符 群聊 成员 数量 应 少于</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000008802</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>在测试过程中，当进入“我的群组”界面并尝试添加成员时，系统并未正确地显示群成员数量的警告信息。尽管设置群名称为123并且点击了打勾图标以确认，但系统错误地允许了一个只有两个成员的群聊被创建，这与预期的功能不符，即群聊的成员数量不应少于3个。</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>过程 进入 群组 界面 添加 成员 系统 并未 正确 群 成员 数量 警告 信息 设置 群 名称 123 点击 打勾 图标 确认 系统 错误 允许 两个 成员 群聊 创建 预期 不符 群聊 成员 数量 应 少于</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>缺少群内对某些人禁言的功能。缺少群主对整个群禁止发言的功能。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>缺少 群内 禁言 缺少 群主 整个 群 禁止 发言</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000008865</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>缺少修改群成员备注的功能。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>缺少 修改 群 成员 备注</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009387</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>在创建的群组聊天界面中，当群主或管理员在发送消息时，其消息后缀并未显示相应的角色标识（如“群主”或“管理员”）。这可能导致用户难以区分消息是由群主还是管理员发送的。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>创建 群组 聊天 界面 群主 管理员 发送 消息 消息 后缀 并未 相应 角色 标识 群主 管理员 难以 区分 消息 群主 管理员 发送</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000008316</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>在创建群成功后，该功能界面中缺少了“管理员设置”这一选项，导致用户无法为新创建的群组设置管理员。这在多人大群的情况下尤其不便，因为缺乏管理员设置可能会导致群组管理困难，影响群组的正常运行与沟通效率。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>创建 群 成功 界面 缺少 管理员 设置 这一 选项 无法 新创建 群组 设置 管理员 人大 群 情况 尤其 不便 缺乏 管理员 设置 群组 管理 困难 群组 正常 运行 沟通 效率</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000008918</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>设置群成员为该群管理员时，没有相应的设置群管理员消息提示。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>设置 群 成员 群 管理员 没有 相应 设置 群 管理员 消息 提示</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000008837</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>该应用程序在群聊中存在一个显示问题。新加入的成员无法查看到除他们之外其他成员的过往聊天记录，这违反了用户期望，可能导致信息不对称和沟通障碍。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>应用程序 群聊 新 加入 成员 无法 查看 之外 成员 过往 聊天记录 违反 期望 信息 对称 沟通 障碍</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000008931</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>在群聊界面中，当有成员退出群聊时，当前的提示功能似乎出现了故障。具体来说，群主和仍在群聊中的其他成员并未收到任何关于成员退出的通知或提示，这可能导致了对群内动态的不知情，影响了群聊的管理和沟通效率。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>群聊 界面 当有 成员 退出 群聊 当前 提示 出现 故障 具体来说 群主 群聊 成员 并未 收到 成员 退出 通知 提示 群内 动态 不知情 群聊 管理 沟通 效率</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000009549</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，当用户退出群组时，尽管群主在群成员列表中看不到该成员，但群主并未收到任何通知或提示表明有成员已退出。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>退出 群组 群主 群 成员 列表 看不到 成员 群主 并未 收到 通知 提示 表明 成员 退出</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000009160</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>在群组设置中选择退出群组后，用户的手机提示“你退出了‘东大荒’”，但群主并未收到该成员已退出的系统通知。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>群组 设置 选择 退出 群组 手机 提示 退出 ‘ 东大 荒 ’ 群主 并未 收到 成员 退出 系统 通知</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000009812</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>申请加入群后，群主同意，但是群助手未提示</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>申请加入 群后 群主 同意 群 助手 未 提示</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000008996</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>该软件在用户创建群聊后，当群成员退出时并未提供任何形式的提醒或通知，这与用户期望不符。用户可能无法得知哪些成员已经离开群聊，这可能导致群聊的管理和沟通效率受到影响。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>创建 群聊 当群 成员 退出 并未 提供 形式 提醒 通知 期望 不符 无法 得知 成员 离开 群聊 群聊 管理 沟通 效率</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000009280</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>该软件在创建群聊后，出现了显示错误。具体地，群主的信息并未正确展示，而且所展示的群主信息与群聊中的实际群主不符。这可能会导致用户在管理或识别群组活动时产生混淆。</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>创建 群聊 出现 错误 具体 群主 信息 并未 正确 展示 展示 群主 信息 群聊 群主 不符 管理 识别 群组 活动 产生 混淆</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000009215</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>该软件在测试“群简介”功能时出现以下问题：
 1. 当群简介的字数超过设定的限制时，系统并未提供任何提示信息，导致用户无法得知他们的输入已经超过了限制。
 2. 当前，只有群主能够编辑群简介，而群成员无法进行编辑操作。然而，当发生这种情况时，系统并没有给用户发送任何消息或提示，这使得群成员无法得知他们没有权限进行编辑。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>群 简介 出现 以下 
  .   当群 简介 字数 超过 设定 限制 系统 并未 提供 提示信息 无法 得知 输入 超过 限制 
  .   当前 群主 能够 编辑 群 简介 而群 成员 无法 进行 编辑 发生 情况 系统 没有 发送 消息 提示 群 成员 无法 得知 没有 权限 进行 编辑</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009223</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>这个bug描述的问题是：群组管理员无法将已经加入群的成员踢出群。根据图片中显示的功能，在群组设置里面，只能进行“勋章”、“满勤”、“菜鸟入行”等操作，而没有关于踢出成员的选项或功能。这意味着即使管理员想要移除不良成员，他们也无法执行这一操作。这可能会导致群组内部出现不安全因素和不良聊天环境，从而影响到群组的整体体验和安全性。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>群组 管理员 无法 加入 群 成员 踢 出群 图片 群组 设置 里面 只能 进行 勋章 满勤 菜鸟 入 行 没有 踢 出 成员 选项 意味着 管理员 想要 移除 不良 成员 无法 执行 这一 群组 内部 出现 安全 因素 不良 聊天 环境 群组 整体 安全性</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000009410</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>群主在建立群的时候如果设置了群的权限为“不允许任何人加入”或是“经过验证才能加入该群”，但是系统默认却允许群成员添加新成员进入，并且这个添加过程是不需要通知群主征得群主同意的，这样变破坏了群主设置该群权限的初衷，破环了群主的权利，不利于群的管理。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>群主 建立 群 设置 群 权限 允许 任何人 加入 验证 加入 该群 系统 默认 允许 群 成员 添加 新 成员 进入 添加 过程 通知 群主 征得 群主 同意 变 破坏 群主 设置 该群 权限 初衷 破环 群主 权利 不利于 群 管理</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000009646</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>在图像中，管理员界面显示了一个群组设置的菜单。其中“群成员”一栏下有“添加群成员”和“转让群”两个选项，但点击后并未出现相应的功能或操作界面。特别地，“群主”一栏下有一个“这有什么好秘密”的文字描述，这似乎是一个无关的信息或错误提示，而不是实际的功能描述。此外，“群公告”和“群头像”以及“群共享”等其他功能也未显示具体操作或设置选项。从这些信息来看，该软件似乎存在功能缺失的问题，特别是与管理群组成员相关的功能部分。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>管理员 界面显示 群组 设置 菜单 群 成员 一栏 添加 群 成员 转让 群 两个 选项 点击 并未 出现 相应 操作界面 特别 群主 一栏 这有 秘密 文字描述 无关 信息 错误 提示 群 公告 群 头像 群 共享 未 具体操作 设置 选项 信息 来看 缺失 特别 管理 群 组成员 相关 部分</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000009684</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，即当群组管理员试图将某一成员强制退出群组时，该功能无法正常执行。尽管在“群成员”列表里可以看到该成员的头像和名称，但实际操作中却无法将其移除。这可能表明软件在处理群管理操作时存在问题，导致预期的功能未能实现。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>即当 群组 管理员 试图 成员 强制 退出 群组 无法 正常 执行 群 成员 列表 里 看到 成员 头像 名称 实际操作 无法 移除 表明 软件 处理 群 管理 预期 未能 实现</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000009577</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>该软件界面显示了群组管理功能，包括添加和移除用户。然而，当尝试踢出某个用户时，系统似乎没有执行这个操作，导致用户没有被成功移除。这可能是一个bug，因为通常来说，群主或管理员应该能够移除任何成员。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>界面显示 群组 管理 包括 添加 移除 踢 出 系统 没有 执行 没有 成功 移除 通常 群主 管理员 应该 能够 移除 成员</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000010017</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>该应用程序的群管理功能似乎存在缺陷，因为在该群组设置中没有提供添加或识别管理员的选项。这可能意味着群主无法将其他成员设置为管理员，或者应用程序本身的设计并未包括这一功能。此外，界面上也没有明显的“设置”或“管理”按钮，这进一步暗示了用户可能无法访问或更改群管理设置。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>应用程序 群 管理 缺陷 群组 设置 没有 提供 添加 识别 管理员 选项 意味着 群主 无法 成员 设置 管理员 应用程序 设计 并未 包括 这一 界面 没有 明显 设置 管理 按钮 进一步 暗示 无法访问 更改 群 管理 设置</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>10010000009558</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>从图片描述来看，这个功能似乎存在冗余。当用户在群里点击群成员列表中的自己时，系统允许用户与自己进行对话。这可能表明系统没有明确区分与其他群成员的对话和与自己的对话，可能导致用户操作上的困惑或误操作。</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>图片 来看 冗余 群里 点击 群 成员 列表 系统 允许 进行 对话 表明 系统 没有 明确 区分 群 成员 对话 对话 困惑 误操作</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000009253</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>该软件界面显示的群组设置中，当用户尝试更改群主名称后，系统未能正确更新群主的名称。在“群组设置”部分，尽管用户已经更改了群主的昵称，但群主的名称仍然显示为默认的昵称，而不是用户自己设定的新昵称。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>界面显示 群组 设置 更改 群主 名称 系统 未能 正确 更新 群主 名称 群组 设置 部分 更改 群主 昵称 群主 名称 仍然 默认 昵称 设定 新 昵称</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>10010000008505</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>在软件的群聊添加成员功能中，用户界面存在一个性能问题。当用户在成员列表上以高频率快速点击时，会出现成员图像闪烁的现象。这种闪动可能是由于界面渲染速度跟不上用户操作的速度导致的，这影响了用户体验，使得界面看起来不稳定和不专业。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>软件 群聊 添加 成员 用户界面 性能 成员 列表 上以 高频率 快速 点击 出现 成员 闪烁 现象 闪动 界面 渲染 速度 跟不上 速度 界面 看起来 稳定 专业</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000008670</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>在群通讯录中选择未进群的成员时，当群成员数量较多，系统出现错误提示。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>群 通讯录 选择 未 进群 成员 当群 成员 数量 系统 出现 错误 提示</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000008879</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>该bug的描述如下：在群设置中，当群显示为“任何人都可以加入”时，原本的预期结果是组内其他人拉新成员入群需要管理员审核，而群主拉人则不需要。但实际测试结果与预期不符，即无论是群主还是组内其他成员拉新成员入群都不需要管理员审核，这显然违反了原始的设计意图和功能需求，可能导致群管理出现混乱。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>群 设置 当群 任何人 加入 原本 预期 组内 其他人 拉新 成员 入群 管理员 审核 群主 拉人 预期 不符 无论是 群主 组内 成员 拉新 成员 入群 管理员 审核 显然 违反 原始 设计 意图 需求 群 管理 出现 混乱</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000008907</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>该功能存在逻辑错误，群主在尝试转让群组时未能成功进行操作。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>逻辑 错误 群主 转让 群组 未能 成功 进行</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>10010000009144</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>5</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>描述：
 在群聊中，当群主尝试将管理员移出群聊时，系统错误地显示了“管理员杰迷268移出群聊”的提示信息。该提示信息混淆了管理员和群主的身份，导致用户误解为是管理员而非群主执行了移出操作。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t xml:space="preserve">
  群聊 群主 管理员 移出 群聊 系统 错误 管理员 杰迷 268 移出 群聊 提示信息 提示信息 混淆 管理员 群主 身份 误解 管理员 非 群主 执行 移出</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000009962</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>申请加入群组是的附加信息，在该群群主那里显示的特别别扭。应用一个文本框单独框起来。显得整齐一点</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>申请加入 群组 附加 信息 群 群主 特别 别扭 应用 文本框 单独 框起来 显得 整齐 一点</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000008992</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>在创建群组并查看其设置后，发现群主显示的信息并非创建者本人。然而，在重新启动应用之后，群主的名称发生了不可预测的变化，这可能指向一个身份验证或信息更新的问题。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>创建 群组 查看 设置 发现 群主 信息 创建者 重新启动 应用 之后 群主 名称 发生 不可 预测 变化 指向 身份验证 信息 更新</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>10010000009729</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>该软件在显示群成员时，没有遵循预期的首字母排序逻辑。用户期望看到的是群主位于列表前端，而其他成员根据首字母顺序排列。然而，当前显示的是直接按首字母排序，导致用户体验混乱，不符合常规的查看和排序方式。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>群 成员 没有 预期 首字母 排序 逻辑 期望 看到 群主 位于 列表 前端 成员 首字母 顺序排列 当前 首字母 排序 混乱 符合 常规 查看 排序 方式</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008983</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>在群聊中，当用户@一个其他成员后，如果需要撤销对特定成员的@标记，他们必须逐个删除字符。这导致了效率低下和不便的操作。更理想的用户体验应该是在@符号之后有一个空格，这样用户可以通过删除该空格来移除@的用户名称。当前的设计导致用户必须删除整个被@的用户名称串才能达到目的，这无疑增加了操作的复杂性。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>群聊 @ 成员 撤销 特定 成员 @ 标记 必须 逐个 删除 字符 效率 低下 不便 更 理想 应该 @ 符号 之后 空格 删除 空格 移除 @ 名称 当前 设计 必须 删除 整个 @ 名称 串 达到 目的 无疑 增加 复杂性</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000008553</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>该软件在群聊功能中存在一个bug。当群主解散群聊时，系统仅向群主提示了信息，而没有通知所有群成员。同样，当群主尝试转让群聊权限时，系统也只向新群主发送了提示，并未通知其他群成员。此外，在群成员选择退出群聊时，系统仅向该成员发送了退出通知，而未通知群主。这违反了通常的社交软件设计逻辑，通常在此类操作发生时，应该同时通知所有相关方，以确保信息的透明度和公正性。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>群聊 群主 解散 群聊 系统 仅 群主 提示 信息 没有 通知 群 成员 同样 群主 转让 群聊 权限 系统 新 群主 发送 提示 并未 通知 群 成员 群 成员 选择 退出 群聊 系统 仅 成员 发送 退出 通知 未 通知 群主 违反 通常 社交 软件设计 逻辑 通常 此类 发生 应该 通知 相关 方 确保 信息 透明度 公正性</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000009588</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>在群聊中，新加入的成员会在“朋友”按钮或群聊页面显示提示。目前，系统同时提供了红色符号和声音两种提示方式来通知群成员有新成员加入，这可能会造成信息过载和不必要的干扰。建议优化为只向群主发送新成员加入的通知，或者减少提示方式，以提升用户体验。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>群聊 新 加入 成员 朋友 按钮 群聊 页面 提示 目前 系统 提供 红色 符号 声音 两种 提示 方式 通知 群 成员 新 成员 加入 造成 信息 过载 不必要 干扰 建议 优化 群主 发送 新 成员 加入 通知 减少 提示 方式 提升</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000007880</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>在群聊的设置中，当试图更改管理员权限或相关设置时，系统似乎没有提供直接的管理员设置选项。尽管有某些设置需要管理员的批准，但用户界面并没有提供一个明确的区域来管理或添加管理员。这可能导致用户在尝试管理或修改群组设置时遇到困难，因为他们无法直接访问或操作与管理员相关的功能。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>群聊 设置 试图 更改 管理员 权限 相关 设置 系统 没有 提供 管理员 设置 选项 设置 管理员 批准 用户界面 没有 提供 明确 区域 管理 添加 管理员 管理 修改 群组 设置 遇到困难 无法 访问 管理员 相关</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008768</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>当用户尝试在群成员已被完全移除后进行转让操作时，系统并未提供适当的反馈。尽管所有群成员都已消失，但点击“转让群”后，界面仍然显示选择转让对象，并没有明确提示该群内已无其他成员可供转让。这可能导致用户误解或感到困惑，不知道该如何进行下一步操作。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>群 成员 完全 移除 进行 转让 系统 并未 提供 适当 反馈 群 成员 消失 点击 转让 群 界面 仍然 选择 转让 对象 没有 明确 提示 群内 成员 供 转让 误解 感到 困惑 知道 进行 一步</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009837</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>当把群主让给别人时，新群主收到的消息是“成为群群主”，没有说出群的名称。从消息中不知道成为那一个群的群主。</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>群主 让给 新 群主 收到 消息 成为 群 群主 没有 说出 群 名称 消息 知道 成为 群 群主</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000008074</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>在群管理界面中，当执行群主转让操作时，系统未能正确触发并展示转让请求确认环节给被转让者。这导致被转让者无法得知其是否已被选为新的群主，从而可能导致管理上的混乱或误解。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>群 管理 界面 执行 群主 转让 系统 未能 正确 触发 展示 转让 请求 确认 环节 转让 转让 无法 得知 是否 被选为 新 群主 管理 混乱 误解</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000008514</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>该软件中存在一个漏洞，允许群主无视成员的同意与否，随意将人员拉入群组。这可能导致用户隐私和信息安全的风险。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>漏洞 允许 群主 无视 成员 同意 随意 人员 拉 入 群组 隐私 信息安全 风险</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000009180</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>该软件界面中新建群聊功能存在问题，用户在点击添加成员的按钮后，原本预期会直接显示“删除”和设置管理员等必备功能，但实际结果是需要长按群成员头像才能显示这些选项。这种设计使得用户操作不便，与预期结果不符，降低了用户体验。</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>界面 新建 群聊 点击 添加 成员 按钮 原本 预期 删除 设置 管理员 必备 长 按群 成员 头像 选项 设计 不便 预期 不符 降低</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000008770</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>群成员在拉人时，只需要单方面邀请便可以将该成员拉入组内，这会给对方造成比较大的麻烦，有时候不想进的组也可以拉你进入。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>群 成员 拉人时 单方面 邀请 便 成员 拉入 组内 这会 造成 比较 麻烦 有时候 不想 进 组 拉 进入</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000008685</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>群聊成员退出,群主没有收到消息提示</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>群聊 成员 退出 , 群主 没有 收到 消息 提示</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000008360</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>该软件在群成员管理功能上存在缺陷，用户无法直接点击进入群成员的设置选项，必须进行长按操作才能实现。这种设计增加了用户的使用难度和不便，影响了用户体验。</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>群 成员 管理 缺陷 无法 点击 进入 群 成员 设置 选项 必须 进行 长 实现 设计 增加 难度 不便</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000009579</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>在这张图片中，显示了一个聊天界面，其中的成员似乎没有进行任何实质性的交流，而是重复使用相同的几个词汇和表情符号。这可能表明该群组正在经历某种形式的社交互动问题，如成员之间的沟通障碍或缺乏深度对话。此外，群聊的邀请规则设置可能存在问题，使得任何群成员都可以邀请他人加入，即使他们可能是陌生人，这与通常的隐私和安全措施不符。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>图片 聊天 界面 成员 没有 进行 实质性 交流 重复使用 相同 几个 词汇 表情符号 表明 群组 正在 经历 某种 形式 社交互动 成员 之间 沟通 障碍 缺乏 深度 对话 群聊 邀请 规则 设置 群 成员 邀请 加入 陌生人 通常 隐私 安全措施 不符</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000008928</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>该软件在用户尝试行使群主管理员权利，将群聊中的好友移出或设为管理员时，界面反应不够直观。初始状态下，没有明确的指示告知用户需要长按操作，这导致用户在第一次使用时可能会感到困惑和不知所措。这种设计上的不清晰性增加了用户的学习成本，从而降低了用户体验。</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>行使 群主 管理员 权利 群聊 好友 移出 设为 管理员 界面 反应 不够 直观 初始状态 没有 明确 指示 告知 长 第一次 感到 困惑 不知所措 设计 清晰性 增加 学习 成本 降低</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000008528</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>该软件在群消息设置更改时，提示框显示时间过短，导致用户无法进行截图。此外，全部已阅按钮的响应机制存在问题，需要长按才能触发，而点击时无任何反馈。成员退出群聊时，群主和管理员未能得到相应的通知。最后，物品购买的数量限制功能并未提供任何提醒或警告信息。</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>群 消息 设置 更改 提示框 时间 短 无法 进行 截图 已阅 按钮 响应 机制 长 触发 点击 反馈 成员 退出 群聊 群主 管理员 未能 得到 相应 通知 最后 物品 购买 数量 限制 并未 提供 提醒 警告 信息</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10010000009353</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>在群设置中，群主与群成员看到的信息不一致。具体来说，当群主查看其个人资料时，他们看到的是一串数字“2004109408”，而群成员则直接看到了群主的昵称。这种差异可能导致群主无法准确识别自己的信息，从而影响他们在管理或更新群组信息时的体验。</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>群 设置 群主 群 成员 看到 信息 一致 具体来说 群主 查看 个人资料 看到 一串 数字 2004109408 而群 成员 看到 群主 昵称 差异 群主 无法 准确 识别 信息 管理 更新 群组 信息</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10010000009334</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>在群聊中，管理员权限设置功能似乎存在故障。根据当前界面显示的信息，群主无法进行管理员的添加或转让操作，这可能表明软件在该功能上存在问题，导致用户无法正常管理群组内的管理员角色。</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>群聊 管理员 权限 设置 故障 当前 界面显示 信息 群主 无法 进行 管理员 添加 转让 表明 软件 无法 正常 管理 群组 管理员 角色</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000008832</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>这是一个显示群成员列表的应用界面，但存在排序错误的问题。根据测试步骤，查看群成员的功能预期是首先展示群主的信息，然后按照字母顺序显示其他成员。然而，实际结果显示所有群成员是按首字母排序的，没有正确区分群主和其他成员，这与预期结果不符。</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>群 成员 列表 应用 界面 排序 错误 测试步骤 查看 群 成员 预期 展示 群主 信息 字母 顺序 成员 结果显示 群 成员 首字母 排序 没有 正确区分 群主 成员 预期 不符</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000009074</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>在转让群住的时候，被转让的一方没有在群消息助手中提示信息说明自己被转让了群主，自己自己现在已经是哪一个群的群主了</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>转让 群住 转让 一方 没有 群 消息 助手 提示信息 说明 转让 群主 现在 群 群主</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10010000009049</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>该问题描述了一个软件界面的bug。当用户在创建群聊后，尝试删除群聊中的某个成员时，点击该成员的头像会导致整个群聊被删除。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>软件 界面 创建 群聊 删除 群聊 成员 点击 成员 头像 整个 群聊 删除</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000008684</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>在群聊设置中，只有群主有权限更改群名称，而其他群成员则无法进行此操作。这种设计限制了用户对群组身份的个性化表达，可能导致用户感到沮丧和不便，从而影响整体的用户体验。</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>群聊 设置 群主 权限 更改 群 名称 群 成员 无法 进行 设计 限制 群组 身份 个性化 表达 感到 沮丧 不便 整体</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000009696</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>这个bug描述为：在群聊中，尽管设置了群主权限，但群主仍然可以被禁言。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>群聊 设置 群主 权限 群主 仍然 禁言</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000009570</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>3</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>当一个群的群主将群主的位置转让给群中的另外一个用户时，只提示该用户成为了群群主，而不是提醒用户成为了哪个群的群主，除非用户进入群聊列表去查看，这让用户很不知发生了什么情况</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>群 群 主将 群主 位置 转让 群中 提示 成为 群 群主 提醒 成为 群 群主 进入 群聊 列表 查看 不知 发生 情况</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10010000009473</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>在添加群成员的时候，取消改群成员，所有的待加入成员的头像都在闪</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>添加 群 成员 取消 改群 成员 加入成员 头像 闪</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
